--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 2, true);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,85 +1479,19 @@
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>obs_1</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>……ふふ、新鮮な肉が凍り付く様を見るのは、何度見ても美しいわね</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>……ふふ、新鮮な肉が凍り付く様を見るのは、何度見ても美しいわね</t>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>obs_2</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>賭けは『3分以内に凍死』で。</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>賭けは『3分以内に凍死』で。</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>obs_3</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>いや、少しは抵抗するだろう。『5分』だ。</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>いや、少しは抵抗するだろう。『5分』だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -896,12 +896,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>おや、足が震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
+          <t>おや、少し震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>おや、足が震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
+          <t>おや、少し震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,118 +498,148 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>narr_1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>narr_3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>narr_1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>scene1_reception</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>narr_2</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>scene1_reception</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>……次は『冷気』の洗礼です。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>……次は『冷気』の洗礼です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>narr_3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>scene1_reception</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>scene1_reception</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
         </is>
       </c>
     </row>
@@ -621,193 +651,163 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……次は『冷気』の洗礼です。</t>
+          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……次は『冷気』の洗礼です。</t>
+          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
+          <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
+          <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lily_r1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>c_lily_1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ゼクの薬は使わない。自分の力で勝つ</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ゼクの薬は使わない。自分の力で勝つ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lily_r2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>c_lily_2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>準備は整っている。すぐに始めよう</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>準備は整っている。すぐに始めよう</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>lily_r3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c_lily_3</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>少し……待ってくれ</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>少し……待ってくれ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lily_r1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>lily_4</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>lily_r1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>c_lily_1</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ゼクの薬は使わない。自分の力で勝つ</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>ゼクの薬は使わない。自分の力で勝つ</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>lily_r2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>c_lily_2</t>
+          <t>lily_r1_1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>準備は整っている。すぐに始めよう</t>
+          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>準備は整っている。すぐに始めよう</t>
+          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>c_lily_3</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>少し……待ってくれ</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>少し……待ってくれ</t>
+          <t>scene2_balgas</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r2</t>
         </is>
       </c>
     </row>
@@ -819,17 +819,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>lily_r1_1</t>
+          <t>lily_r2_1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
+          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
+          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
     </row>
@@ -855,17 +855,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>lily_r2_1</t>
+          <t>lily_r3_1</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
+          <t>おや、少し震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
+          <t>おや、少し震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
     </row>
@@ -879,79 +879,139 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lily_r3</t>
+          <t>scene2_balgas</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>lily_r3_1</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>おや、少し震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
+          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>おや、少し震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
+          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>scene2_balgas</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>scene2_balgas</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
         </is>
       </c>
     </row>
@@ -963,17 +1023,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
+          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
+          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
         </is>
       </c>
     </row>
@@ -985,237 +1045,177 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
+          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
+          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>c_balgas_1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
+          <t>分かった。必ず生きて帰る</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
+          <t>分かった。必ず生きて帰る</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>c_balgas_2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
+          <t>動き続ける……覚えておく</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
+          <t>動き続ける……覚えておく</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>c_balgas_3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>balgas_r1_1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+          <t>……ああ。その目だ。それを忘れるな。</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+          <t>……ああ。その目だ。それを忘れるな。</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>c_balgas_1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>分かった。必ず生きて帰る</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>分かった。必ず生きて帰る</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>c_balgas_2</t>
+          <t>balgas_r2_1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>動き続ける……覚えておく</t>
+          <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>動き続ける……覚えておく</t>
+          <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>c_balgas_3</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_r3</t>
         </is>
       </c>
     </row>
@@ -1227,17 +1227,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>balgas_r1_1</t>
+          <t>balgas_r3_1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>……ああ。その目だ。それを忘れるな。</t>
+          <t>……フン。行ってこい。</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>……ああ。その目だ。それを忘れるな。</t>
+          <t>……フン。行ってこい。</t>
         </is>
       </c>
     </row>
@@ -1251,91 +1251,136 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>balgas_r2_1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>覚えるんじゃねえ。体に刻み込め。</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>覚えるんじゃねえ。体に刻み込め。</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankE_Ice");             var data = SoundManager.current.GetData("BGM/Battle_RankE_Ice");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankE_Ice");             }</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>balgas_r3_1</t>
+          <t>narr_9</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>……フン。行ってこい。</t>
+          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>……フン。行ってこい。</t>
+          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankE_Ice");             var data = SoundManager.current.GetData("BGM/Battle_RankE_Ice");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankE_Ice");             }</t>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
         </is>
       </c>
     </row>
@@ -1347,151 +1392,34 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
+          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
+          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="D60" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,12 +741,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>ゼクの薬は使わない。自分の力で勝つ</t>
+          <t>自分の力だけで、正々堂々と勝つ</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ゼクの薬は使わない。自分の力で勝つ</t>
+          <t>自分の力だけで、正々堂々と勝つ</t>
         </is>
       </c>
     </row>
@@ -896,602 +896,755 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>おや、足が震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
+          <t>おや、少し震えているようですね。……この寒さ、無理もありませんが。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>おや、足が震えていますよ。……まあ、無理もありませんが。急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
+          <t>おや、少し震えているようですね。……この寒さ、無理もありませんが。</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>scene2_balgas</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>lily_r3_2</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>scene2_balgas</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lily_r3_ready</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>c_lily_ready</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>準備ができた</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>準備ができた</t>
         </is>
       </c>
     </row>
     <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.3</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>c_lily_cancel</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>やっぱりやめる</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>やっぱりやめる</t>
         </is>
       </c>
     </row>
     <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>lily_r3_ready</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>lily_r3_ready</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
+          <t>……では、行ってらっしゃいませ。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
+          <t>……では、行ってらっしゃいませ。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>scene2_balgas</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>lily_cancel</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>scene2_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>balgas_4</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>c_balgas_1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>分かった。必ず生きて帰る</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>分かった。必ず生きて帰る</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>c_balgas_2</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>動き続ける……覚えておく</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>動き続ける……覚えておく</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>c_balgas_3</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="F49" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>balgas_r1_1</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>……ああ。その目だ。それを忘れるな。</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>……ああ。その目だ。それを忘れるな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
+        <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>balgas_r2_1</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>覚えるんじゃねえ。体に刻み込め。</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>覚えるんじゃねえ。体に刻み込め。</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c_balgas_1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>分かった。必ず生きて帰る</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>分かった。必ず生きて帰る</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>balgas_r3_1</t>
+          <t>c_balgas_2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>……フン。行ってこい。</t>
+          <t>動き続ける……覚えておく</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>……フン。行ってこい。</t>
+          <t>動き続ける……覚えておく</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>battle_start</t>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c_balgas_3</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>balgas_r1_1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>……ああ。その目だ。それを忘れるな。</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>……ああ。その目だ。それを忘れるな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankE_Ice");             var data = SoundManager.current.GetData("BGM/Battle_RankE_Ice");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankE_Ice");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
-        </is>
-      </c>
-    </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>balgas_r2_1</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
+          <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
+          <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>balgas_r3_1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
+          <t>……フン。行ってこい。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
+          <t>……フン。行ってこい。</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankE_Ice");             var data = SoundManager.current.GetData("BGM/Battle_RankE_Ice");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankE_Ice");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>narr_11</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>narr_12</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>narr_13</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,63 +1588,19 @@
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>narr_12</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>（中央には、ひと際巨大な影——『零度の咆哮者（ゼロ・ロアラー）』が、獲物を見定めていた。）</t>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>narr_13</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>（その体躯は他の個体の二倍以上。背中には鋭利な氷の棘が無数に生え、吐息だけで周囲の空気を凍らせる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,194 +488,164 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>eval</t>
+          <t>fadeOut</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>fadeIn</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="F11" t="inlineStr">
+    <row r="14">
+      <c r="F14" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
+    <row r="15">
+      <c r="F15" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>narr_3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>scene1_reception</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>scene1_reception</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="F16" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……次は『冷気』の洗礼です。</t>
+          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……次は『冷気』の洗礼です。</t>
+          <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>narr_4</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>scene1_reception</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>scene1_reception</t>
         </is>
       </c>
     </row>
@@ -687,163 +657,193 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
+          <t>……次は『冷気』の洗礼です。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
+          <t>……次は『冷気』の洗礼です。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
+    <row r="24">
+      <c r="B24" t="inlineStr">
         <is>
           <t>lily_r1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>c_lily_1</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>自分の力だけで、正々堂々と勝つ</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>自分の力だけで、正々堂々と勝つ</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
+    <row r="25">
+      <c r="B25" t="inlineStr">
         <is>
           <t>lily_r2</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>c_lily_2</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>準備は整っている。すぐに始めよう</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>準備は整っている。すぐに始めよう</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>c_lily_3</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>少し……待ってくれ</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>少し……待ってくれ</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>lily_r1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>lily_r1_1</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>scene2_balgas</t>
+          <t>lily_r3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>c_lily_3</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>少し……待ってくれ</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>少し……待ってくれ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r1</t>
         </is>
       </c>
     </row>
@@ -855,17 +855,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>lily_r2_1</t>
+          <t>lily_r1_1</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
+          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
+          <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lily_r3</t>
+          <t>lily_r2</t>
         </is>
       </c>
     </row>
@@ -891,148 +891,148 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>lily_r2_1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>scene2_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>lily_r3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>lily_r3_1</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>おや、少し震えているようですね。……この寒さ、無理もありませんが。</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>おや、少し震えているようですね。……この寒さ、無理もありませんが。</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="F32" t="inlineStr">
+    <row r="35">
+      <c r="F35" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>lily_r3_2</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
+    <row r="36">
+      <c r="B36" t="inlineStr">
         <is>
           <t>lily_r3_ready</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>c_lily_ready</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>準備ができた</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>準備ができた</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
+    <row r="37">
+      <c r="B37" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>c_lily_cancel</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>やっぱりやめる</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>やっぱりやめる</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>lily_r3_ready</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>lily_r3_ready</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>……では、行ってらっしゃいませ。</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>……では、行ってらっしゃいませ。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>scene2_balgas</t>
+          <t>cancel</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>lily_r3_ready</t>
         </is>
       </c>
     </row>
@@ -1044,133 +1044,103 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>lily_cancel</t>
+          <t>lily_r3_ready</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
+          <t>……では、行ってらっしゃいませ。</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
+          <t>……では、行ってらっしゃいませ。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>scene2_balgas</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>scene2_balgas</t>
+          <t>cancel</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>lily_cancel</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>scene2_balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
+        <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="D45" t="inlineStr">
+    <row r="48">
+      <c r="D48" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1152,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>narr_5</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
+          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
+          <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
         </is>
       </c>
     </row>
@@ -1204,17 +1174,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+          <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
         </is>
       </c>
     </row>
@@ -1226,17 +1196,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
+          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
+          <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
         </is>
       </c>
     </row>
@@ -1248,17 +1218,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+          <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
         </is>
       </c>
     </row>
@@ -1270,141 +1240,171 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
+    <row r="57">
+      <c r="B57" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>c_balgas_1</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>分かった。必ず生きて帰る</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>分かった。必ず生きて帰る</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
+    <row r="58">
+      <c r="B58" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>c_balgas_2</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>動き続ける……覚えておく</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>動き続ける……覚えておく</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>c_balgas_3</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>balgas_r1_1</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>……ああ。その目だ。それを忘れるな。</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>……ああ。その目だ。それを忘れるな。</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>battle_start</t>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>c_balgas_3</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>balgas_r2_1</t>
+          <t>balgas_r1_1</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>覚えるんじゃねえ。体に刻み込め。</t>
+          <t>……ああ。その目だ。それを忘れるな。</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>覚えるんじゃねえ。体に刻み込め。</t>
+          <t>……ああ。その目だ。それを忘れるな。</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>balgas_r2</t>
         </is>
       </c>
     </row>
@@ -1452,17 +1452,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>balgas_r3_1</t>
+          <t>balgas_r2_1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>……フン。行ってこい。</t>
+          <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>……フン。行ってこい。</t>
+          <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
       </c>
     </row>
@@ -1476,70 +1476,55 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>balgas_r3_1</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>……フン。行ってこい。</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>……フン。行ってこい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankE_Ice");             var data = SoundManager.current.GetData("BGM/Battle_RankE_Ice");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankE_Ice");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
         </is>
       </c>
     </row>
@@ -1551,56 +1536,107 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
           <t>narr_10</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="inlineStr">
+    <row r="75">
+      <c r="F75" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
+    <row r="76">
+      <c r="D76" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
+    <row r="77">
+      <c r="D77" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_F.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,150 +491,150 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>（ロビーの空気が一変している。受付カウンターには薄く霜が降り、リリィの吐息すら白く濁っている。）</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>（彼女は冷たくなった指先を温めるように摩りながら、氷の結晶が浮き出た登録証を提示した。）</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>（松明の炎すら、凍気に押されて小さく震えている。床の石畳には薄い氷膜が張り、踏むたびにパリパリと音を立てる。）</t>
         </is>
@@ -650,110 +655,110 @@
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>……次は『冷気』の洗礼です。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>……次は『冷気』の洗礼です。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>（彼女は氷の結晶が浮き出た登録証を、あなたの前に滑らせる。）</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>お気の毒に。観客席の『あの方々』は、今夜は新鮮なフローズン・ミートを召し上がりたい気分だそうですよ。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>対戦相手は『ヴォイド・アイスハウンド』の群れ。その咆哮は空気を凍らせ、その牙は魂の熱を奪い去る。</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>……もし、心臓の鼓動を止められたくないのであれば、あのおぞましい商人から何か『温かいもの』でも買い取っておくことでしたね。ま、今からでも遅くはありませんが。</t>
         </is>
@@ -765,22 +770,22 @@
           <t>lily_r1</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>c_lily_1</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>自分の力だけで、正々堂々と勝つ</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>自分の力だけで、正々堂々と勝つ</t>
         </is>
@@ -792,22 +797,22 @@
           <t>lily_r2</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>c_lily_2</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>準備は整っている。すぐに始めよう</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>準備は整っている。すぐに始めよう</t>
         </is>
@@ -819,22 +824,22 @@
           <t>lily_r3</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>c_lily_3</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>少し……待ってくれ</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>少し……待ってくれ</t>
         </is>
@@ -848,22 +853,22 @@
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>lily_r1_1</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>ふふ、自信はおありのようで。……では、凍り付いた死体にならないよう、お祈りしておりますね。</t>
         </is>
@@ -884,22 +889,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>lily_r2_1</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>準備万端、と。頼もしいこと。……それでは、どうぞ。地獄の冷凍庫へ。</t>
         </is>
@@ -920,44 +925,44 @@
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>lily_r3_1</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>おや、少し震えているようですね。……この寒さ、無理もありませんが。</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>おや、少し震えているようですね。……この寒さ、無理もありませんが。</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>lily_r3_2</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>急ぎませんから、準備が整ったらお声掛けくださいませ。</t>
         </is>
@@ -969,22 +974,22 @@
           <t>lily_r3_ready</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>c_lily_ready</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>準備ができた</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>準備ができた</t>
         </is>
@@ -996,22 +1001,22 @@
           <t>cancel</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>c_lily_cancel</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>やっぱりやめる</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>やっぱりやめる</t>
         </is>
@@ -1023,7 +1028,7 @@
           <t>cancel</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>cancel</t>
         </is>
@@ -1037,22 +1042,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>lily_r3_ready</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>……では、行ってらっしゃいませ。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>……では、行ってらっしゃいませ。</t>
         </is>
@@ -1073,29 +1078,29 @@
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>lily_cancel</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>賢明な判断かもしれませんね。……またのお越しをお待ちしております。</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>end</t>
         </is>
@@ -1109,212 +1114,212 @@
       </c>
     </row>
     <row r="46">
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>（闘技場の門扉からは、身を切るような極寒の風が吹き荒れている。バルガスは分厚い外套に身を包み、凍りついた鉄格子を乱暴に叩いた。）</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>おい、顔色が青白いぜ。戦う前から死体ごっこか？</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>いいか、寒さってのは『恐怖』と同じだ。一度足が止まれば、そこが終着駅だと思え。</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>（彼は凍りついた門扉を蹴り、氷の破片を散らす。）</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>奴らは群れで動く。一匹が吠えれば、次の一匹がお前の死角に回り込む。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>常に動き続けろ。止まれば凍る、動けば血が巡る……単純な理屈だ。</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>（彼は酒瓶を一口飲み、吐息を白く吐き出す。）</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>……死にたくなければ、その体内の火種を絶やすんじゃねえぞ。生きる意志ってのは、案外そういうところから潰えていくもんだ。</t>
         </is>
@@ -1326,22 +1331,22 @@
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>c_balgas_1</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>分かった。必ず生きて帰る</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>分かった。必ず生きて帰る</t>
         </is>
@@ -1353,22 +1358,22 @@
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>c_balgas_2</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>動き続ける……覚えておく</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>動き続ける……覚えておく</t>
         </is>
@@ -1380,22 +1385,22 @@
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>c_balgas_3</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -1409,22 +1414,22 @@
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>balgas_r1_1</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>……ああ。その目だ。それを忘れるな。</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>……ああ。その目だ。それを忘れるな。</t>
         </is>
@@ -1445,22 +1450,22 @@
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>balgas_r2_1</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>覚えるんじゃねえ。体に刻み込め。</t>
         </is>
@@ -1481,22 +1486,22 @@
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>balgas_r3_1</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>……フン。行ってこい。</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>……フン。行ってこい。</t>
         </is>
@@ -1517,126 +1522,126 @@
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_RankE_Ice");             var data = SoundManager.current.GetData("BGM/Battle_RankE_Ice");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_RankE_Ice");             }</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>（ゲートが開いた瞬間、視界を覆うのは吹き荒れる銀世界の白。）</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>（地面は氷に閉ざされ、踏みしめるたびに不吉な軋みを上げる。天井はなく、ただ虚無の闇と、そこから降り注ぐ氷の結晶。）</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>narr_10</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>（突如、雪霧の奥から無数の青白い眼光が浮かび上がった。）</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>（それは、体躯が氷の結晶で形成された、異形の魔犬の群れ。彼らが喉を鳴らすたび、大気が結晶化して地面に降り注ぐ。）</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>end</t>
         </is>
